--- a/config/Subjects_MASTER.xlsx
+++ b/config/Subjects_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusaku/dev/python/research-project-processing/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3802236B-4272-054C-B1ED-C9D4D62EFECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66ACA86-193D-104E-8004-EE96EF507029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="2080" windowWidth="26460" windowHeight="14160" xr2:uid="{124CF236-2FB6-4C38-A2C0-D1007BEFA698}"/>
   </bookViews>
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E098825E-200F-4173-80DC-536F2615B14A}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1174,12 +1174,6 @@
       <c r="H2">
         <v>60</v>
       </c>
-      <c r="I2">
-        <v>50</v>
-      </c>
-      <c r="J2">
-        <v>40</v>
-      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
@@ -1200,12 +1194,6 @@
       <c r="H3">
         <v>60</v>
       </c>
-      <c r="I3">
-        <v>40</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -1226,12 +1214,6 @@
       <c r="H4">
         <v>60</v>
       </c>
-      <c r="I4">
-        <v>40</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
@@ -1252,12 +1234,6 @@
       <c r="H5">
         <v>60</v>
       </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-      <c r="J5">
-        <v>40</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -1278,12 +1254,6 @@
       <c r="H6">
         <v>60</v>
       </c>
-      <c r="I6">
-        <v>40</v>
-      </c>
-      <c r="J6">
-        <v>50</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -1304,12 +1274,6 @@
       <c r="H7">
         <v>60</v>
       </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
-      <c r="J7">
-        <v>40</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -1330,12 +1294,6 @@
       <c r="H8">
         <v>60</v>
       </c>
-      <c r="I8">
-        <v>50</v>
-      </c>
-      <c r="J8">
-        <v>40</v>
-      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
@@ -1356,12 +1314,6 @@
       <c r="H9">
         <v>60</v>
       </c>
-      <c r="I9">
-        <v>50</v>
-      </c>
-      <c r="J9">
-        <v>40</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
@@ -1382,12 +1334,6 @@
       <c r="H10">
         <v>60</v>
       </c>
-      <c r="I10">
-        <v>40</v>
-      </c>
-      <c r="J10">
-        <v>50</v>
-      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
@@ -1407,12 +1353,6 @@
       </c>
       <c r="H11">
         <v>60</v>
-      </c>
-      <c r="I11">
-        <v>40</v>
-      </c>
-      <c r="J11">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
